--- a/www/IndicatorsPerCountry/Argentina_GDPperCapita_TerritorialRef_1946_2012_CCode_32.xlsx
+++ b/www/IndicatorsPerCountry/Argentina_GDPperCapita_TerritorialRef_1946_2012_CCode_32.xlsx
@@ -489,13 +489,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Argentina_GDPperCapita_TerritorialRef_1946_2012_CCode_32.xlsx
+++ b/www/IndicatorsPerCountry/Argentina_GDPperCapita_TerritorialRef_1946_2012_CCode_32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="167">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,430 +36,448 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>930.65547372</t>
+    <t>1484</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>998.127995564</t>
-  </si>
-  <si>
-    <t>1251.41243988</t>
-  </si>
-  <si>
-    <t>1355.2074765</t>
-  </si>
-  <si>
-    <t>1467.61151306</t>
-  </si>
-  <si>
-    <t>1635.39336904</t>
-  </si>
-  <si>
-    <t>1637.77296227</t>
-  </si>
-  <si>
-    <t>1769.40323957</t>
-  </si>
-  <si>
-    <t>1643.41290473</t>
-  </si>
-  <si>
-    <t>1671.47737259</t>
-  </si>
-  <si>
-    <t>1604.40766189</t>
-  </si>
-  <si>
-    <t>1594.45002099</t>
-  </si>
-  <si>
-    <t>1950.25845258</t>
-  </si>
-  <si>
-    <t>2115.64091617</t>
-  </si>
-  <si>
-    <t>2187.13375797</t>
-  </si>
-  <si>
-    <t>2449.40729554</t>
-  </si>
-  <si>
-    <t>2365.90064801</t>
-  </si>
-  <si>
-    <t>2409.95799068</t>
-  </si>
-  <si>
-    <t>2646.52485768</t>
-  </si>
-  <si>
-    <t>2690.03268092</t>
-  </si>
-  <si>
-    <t>2416.4500373</t>
-  </si>
-  <si>
-    <t>2278.39556932</t>
-  </si>
-  <si>
-    <t>2666.71104459</t>
-  </si>
-  <si>
-    <t>2765.91807994</t>
-  </si>
-  <si>
-    <t>3117.41647088</t>
-  </si>
-  <si>
-    <t>3377.59940946</t>
-  </si>
-  <si>
-    <t>3585.8545148</t>
-  </si>
-  <si>
-    <t>2822.69076123</t>
-  </si>
-  <si>
-    <t>2973.80896711</t>
-  </si>
-  <si>
-    <t>3394.92288607</t>
-  </si>
-  <si>
-    <t>2875.35152482</t>
-  </si>
-  <si>
-    <t>2880.38715859</t>
-  </si>
-  <si>
-    <t>2716.50663797</t>
-  </si>
-  <si>
-    <t>2992.31523236</t>
-  </si>
-  <si>
-    <t>3191.03975029</t>
-  </si>
-  <si>
-    <t>3478.61684671</t>
-  </si>
-  <si>
-    <t>3518.26834571</t>
-  </si>
-  <si>
-    <t>3459.44665051</t>
-  </si>
-  <si>
-    <t>3657.17114778</t>
-  </si>
-  <si>
-    <t>3698.74459156</t>
-  </si>
-  <si>
-    <t>3821.71048984</t>
-  </si>
-  <si>
-    <t>3746.15071367</t>
-  </si>
-  <si>
-    <t>3903.62286748</t>
-  </si>
-  <si>
-    <t>3797.24337763</t>
-  </si>
-  <si>
-    <t>3302.22346199</t>
-  </si>
-  <si>
-    <t>3243.72318083</t>
-  </si>
-  <si>
-    <t>3091.14583307</t>
-  </si>
-  <si>
-    <t>2790.12229155</t>
-  </si>
-  <si>
-    <t>3247.87614436</t>
-  </si>
-  <si>
-    <t>3307.48611884</t>
-  </si>
-  <si>
-    <t>3473.0686694</t>
-  </si>
-  <si>
-    <t>3471.12732907</t>
-  </si>
-  <si>
-    <t>3635.64002806</t>
-  </si>
-  <si>
-    <t>3897.85878715</t>
-  </si>
-  <si>
-    <t>4055.26217498</t>
-  </si>
-  <si>
-    <t>3919.40954681</t>
-  </si>
-  <si>
-    <t>3994.0184402</t>
-  </si>
-  <si>
-    <t>4155.63666176</t>
-  </si>
-  <si>
-    <t>4291.30169703</t>
-  </si>
-  <si>
-    <t>4367.06770334</t>
-  </si>
-  <si>
-    <t>4079.58195698</t>
-  </si>
-  <si>
-    <t>3711.65544063</t>
-  </si>
-  <si>
-    <t>3521.8219855</t>
-  </si>
-  <si>
-    <t>3621.31486287</t>
-  </si>
-  <si>
-    <t>3844.81809725</t>
-  </si>
-  <si>
-    <t>3950.00906377</t>
-  </si>
-  <si>
-    <t>3911.96394198</t>
-  </si>
-  <si>
-    <t>4125.31366454</t>
-  </si>
-  <si>
-    <t>4071.91516782</t>
-  </si>
-  <si>
-    <t>4147.90946251</t>
-  </si>
-  <si>
-    <t>4161.4338303</t>
-  </si>
-  <si>
-    <t>4303.95969398</t>
-  </si>
-  <si>
-    <t>4284.20105902</t>
-  </si>
-  <si>
-    <t>4182.16777181</t>
-  </si>
-  <si>
-    <t>4578.96653724</t>
-  </si>
-  <si>
-    <t>4356.21314709</t>
-  </si>
-  <si>
-    <t>4665.16819144</t>
-  </si>
-  <si>
-    <t>5089.47230991</t>
-  </si>
-  <si>
-    <t>5251.77620763</t>
-  </si>
-  <si>
-    <t>5047.3981284</t>
-  </si>
-  <si>
-    <t>4986.72445834</t>
-  </si>
-  <si>
-    <t>5073.02991515</t>
-  </si>
-  <si>
-    <t>4717.4138595</t>
-  </si>
-  <si>
-    <t>4874.49382408</t>
-  </si>
-  <si>
-    <t>4979.82864778</t>
-  </si>
-  <si>
-    <t>5237.00007518</t>
-  </si>
-  <si>
-    <t>5285.31468031</t>
-  </si>
-  <si>
-    <t>5460.68649417</t>
-  </si>
-  <si>
-    <t>5697.98098808</t>
-  </si>
-  <si>
-    <t>5241.46806271</t>
-  </si>
-  <si>
-    <t>5559.46594707</t>
-  </si>
-  <si>
-    <t>5861.84164899</t>
-  </si>
-  <si>
-    <t>5677.23322494</t>
-  </si>
-  <si>
-    <t>5455.44048193</t>
-  </si>
-  <si>
-    <t>5926.12665839</t>
-  </si>
-  <si>
-    <t>6370.74733767</t>
-  </si>
-  <si>
-    <t>6320.60423489</t>
-  </si>
-  <si>
-    <t>6398.95178494</t>
-  </si>
-  <si>
-    <t>6577.75662223</t>
-  </si>
-  <si>
-    <t>7037.28038266</t>
-  </si>
-  <si>
-    <t>7301.9662167</t>
-  </si>
-  <si>
-    <t>7529.93701808</t>
-  </si>
-  <si>
-    <t>7634.56555882</t>
-  </si>
-  <si>
-    <t>7961.97387932</t>
-  </si>
-  <si>
-    <t>8334.08360193</t>
-  </si>
-  <si>
-    <t>8122.49730464</t>
-  </si>
-  <si>
-    <t>7965.20182969</t>
-  </si>
-  <si>
-    <t>8304.38142431</t>
-  </si>
-  <si>
-    <t>7807.24768326</t>
-  </si>
-  <si>
-    <t>8226.90984805</t>
-  </si>
-  <si>
-    <t>8205.97988727</t>
-  </si>
-  <si>
-    <t>7606.55851359</t>
-  </si>
-  <si>
-    <t>7245.75519945</t>
-  </si>
-  <si>
-    <t>7387.05345152</t>
-  </si>
-  <si>
-    <t>7425.85425557</t>
-  </si>
-  <si>
-    <t>6834.93088159</t>
-  </si>
-  <si>
-    <t>7223.79194092</t>
-  </si>
-  <si>
-    <t>7297.92885375</t>
-  </si>
-  <si>
-    <t>7054.36306427</t>
-  </si>
-  <si>
-    <t>6520.10929633</t>
-  </si>
-  <si>
-    <t>6432.92166122</t>
-  </si>
-  <si>
-    <t>6954.71072239</t>
-  </si>
-  <si>
-    <t>7383.73958704</t>
-  </si>
-  <si>
-    <t>7748.36772933</t>
-  </si>
-  <si>
-    <t>8119.04897189</t>
-  </si>
-  <si>
-    <t>7785.9503338</t>
-  </si>
-  <si>
-    <t>8090.80127409</t>
-  </si>
-  <si>
-    <t>8614.7296235</t>
-  </si>
-  <si>
-    <t>8899.88824809</t>
-  </si>
-  <si>
-    <t>8545.157891</t>
-  </si>
-  <si>
-    <t>8409.96991386</t>
-  </si>
-  <si>
-    <t>7967.80630673</t>
-  </si>
-  <si>
-    <t>7038.06321799</t>
-  </si>
-  <si>
-    <t>7518.34332924</t>
-  </si>
-  <si>
-    <t>7966.88557451</t>
-  </si>
-  <si>
-    <t>8540.59822734</t>
-  </si>
-  <si>
-    <t>9101.15274692</t>
-  </si>
-  <si>
-    <t>9715.22719606</t>
-  </si>
-  <si>
-    <t>9971.92368459</t>
-  </si>
-  <si>
-    <t>9580.69477743</t>
-  </si>
-  <si>
-    <t>10256.2751353</t>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>2160</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>2606</t>
+  </si>
+  <si>
+    <t>2611</t>
+  </si>
+  <si>
+    <t>2820</t>
+  </si>
+  <si>
+    <t>2619</t>
+  </si>
+  <si>
+    <t>2664</t>
+  </si>
+  <si>
+    <t>2557</t>
+  </si>
+  <si>
+    <t>2541</t>
+  </si>
+  <si>
+    <t>3108</t>
+  </si>
+  <si>
+    <t>3373</t>
+  </si>
+  <si>
+    <t>3486</t>
+  </si>
+  <si>
+    <t>3904</t>
+  </si>
+  <si>
+    <t>3771</t>
+  </si>
+  <si>
+    <t>3841</t>
+  </si>
+  <si>
+    <t>4219</t>
+  </si>
+  <si>
+    <t>4288</t>
+  </si>
+  <si>
+    <t>3851</t>
+  </si>
+  <si>
+    <t>3631</t>
+  </si>
+  <si>
+    <t>4251</t>
+  </si>
+  <si>
+    <t>4409</t>
+  </si>
+  <si>
+    <t>4968</t>
+  </si>
+  <si>
+    <t>5384</t>
+  </si>
+  <si>
+    <t>5716</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>4741</t>
+  </si>
+  <si>
+    <t>5412</t>
+  </si>
+  <si>
+    <t>4583</t>
+  </si>
+  <si>
+    <t>4591</t>
+  </si>
+  <si>
+    <t>4331</t>
+  </si>
+  <si>
+    <t>4769</t>
+  </si>
+  <si>
+    <t>5086</t>
+  </si>
+  <si>
+    <t>5545</t>
+  </si>
+  <si>
+    <t>5608</t>
+  </si>
+  <si>
+    <t>5514</t>
+  </si>
+  <si>
+    <t>5829</t>
+  </si>
+  <si>
+    <t>5896</t>
+  </si>
+  <si>
+    <t>6092</t>
+  </si>
+  <si>
+    <t>5971</t>
+  </si>
+  <si>
+    <t>6223</t>
+  </si>
+  <si>
+    <t>6052</t>
+  </si>
+  <si>
+    <t>5263</t>
+  </si>
+  <si>
+    <t>5171</t>
+  </si>
+  <si>
+    <t>4927</t>
+  </si>
+  <si>
+    <t>4447</t>
+  </si>
+  <si>
+    <t>5177</t>
+  </si>
+  <si>
+    <t>5271</t>
+  </si>
+  <si>
+    <t>5536</t>
+  </si>
+  <si>
+    <t>5533</t>
+  </si>
+  <si>
+    <t>5796</t>
+  </si>
+  <si>
+    <t>6213</t>
+  </si>
+  <si>
+    <t>6464</t>
+  </si>
+  <si>
+    <t>6247</t>
+  </si>
+  <si>
+    <t>6366</t>
+  </si>
+  <si>
+    <t>6625</t>
+  </si>
+  <si>
+    <t>6840</t>
+  </si>
+  <si>
+    <t>6961</t>
+  </si>
+  <si>
+    <t>6503</t>
+  </si>
+  <si>
+    <t>5917</t>
+  </si>
+  <si>
+    <t>5614</t>
+  </si>
+  <si>
+    <t>5772</t>
+  </si>
+  <si>
+    <t>6129</t>
+  </si>
+  <si>
+    <t>6296</t>
+  </si>
+  <si>
+    <t>6236</t>
+  </si>
+  <si>
+    <t>6575</t>
+  </si>
+  <si>
+    <t>6491</t>
+  </si>
+  <si>
+    <t>6612</t>
+  </si>
+  <si>
+    <t>6633</t>
+  </si>
+  <si>
+    <t>6861</t>
+  </si>
+  <si>
+    <t>6829</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>7299</t>
+  </si>
+  <si>
+    <t>6943</t>
+  </si>
+  <si>
+    <t>7436</t>
+  </si>
+  <si>
+    <t>8112</t>
+  </si>
+  <si>
+    <t>8372</t>
+  </si>
+  <si>
+    <t>8045</t>
+  </si>
+  <si>
+    <t>7949</t>
+  </si>
+  <si>
+    <t>8086</t>
+  </si>
+  <si>
+    <t>7519</t>
+  </si>
+  <si>
+    <t>7769</t>
+  </si>
+  <si>
+    <t>7938</t>
+  </si>
+  <si>
+    <t>8348</t>
+  </si>
+  <si>
+    <t>8424</t>
+  </si>
+  <si>
+    <t>8705</t>
+  </si>
+  <si>
+    <t>9083</t>
+  </si>
+  <si>
+    <t>8354</t>
+  </si>
+  <si>
+    <t>8861</t>
+  </si>
+  <si>
+    <t>9344</t>
+  </si>
+  <si>
+    <t>9049</t>
+  </si>
+  <si>
+    <t>8695</t>
+  </si>
+  <si>
+    <t>9446</t>
+  </si>
+  <si>
+    <t>10155</t>
+  </si>
+  <si>
+    <t>10076</t>
+  </si>
+  <si>
+    <t>10200</t>
+  </si>
+  <si>
+    <t>10485</t>
+  </si>
+  <si>
+    <t>11217</t>
+  </si>
+  <si>
+    <t>11639</t>
+  </si>
+  <si>
+    <t>12003</t>
+  </si>
+  <si>
+    <t>12170</t>
+  </si>
+  <si>
+    <t>12691</t>
+  </si>
+  <si>
+    <t>13284</t>
+  </si>
+  <si>
+    <t>12946</t>
+  </si>
+  <si>
+    <t>12696</t>
+  </si>
+  <si>
+    <t>13236</t>
+  </si>
+  <si>
+    <t>12444</t>
+  </si>
+  <si>
+    <t>13114</t>
+  </si>
+  <si>
+    <t>13080</t>
+  </si>
+  <si>
+    <t>12125</t>
+  </si>
+  <si>
+    <t>11550</t>
+  </si>
+  <si>
+    <t>11775</t>
+  </si>
+  <si>
+    <t>11837</t>
+  </si>
+  <si>
+    <t>10895</t>
+  </si>
+  <si>
+    <t>11515</t>
+  </si>
+  <si>
+    <t>11633</t>
+  </si>
+  <si>
+    <t>11244</t>
+  </si>
+  <si>
+    <t>10393</t>
+  </si>
+  <si>
+    <t>10254</t>
+  </si>
+  <si>
+    <t>11223.9846365402</t>
+  </si>
+  <si>
+    <t>12267.0835867812</t>
+  </si>
+  <si>
+    <t>12926.7946652176</t>
+  </si>
+  <si>
+    <t>13571.379431201</t>
+  </si>
+  <si>
+    <t>13086.0364515543</t>
+  </si>
+  <si>
+    <t>13715.2268187077</t>
+  </si>
+  <si>
+    <t>14722.6459400365</t>
+  </si>
+  <si>
+    <t>15185.9586884861</t>
+  </si>
+  <si>
+    <t>14577.8322730293</t>
+  </si>
+  <si>
+    <t>14368.9427373623</t>
+  </si>
+  <si>
+    <t>13651.980987935</t>
+  </si>
+  <si>
+    <t>12094.7728377935</t>
+  </si>
+  <si>
+    <t>13088.5650108326</t>
+  </si>
+  <si>
+    <t>14183.225137777</t>
+  </si>
+  <si>
+    <t>15344.1571340567</t>
+  </si>
+  <si>
+    <t>16490.4735815761</t>
+  </si>
+  <si>
+    <t>17891.9434108489</t>
+  </si>
+  <si>
+    <t>18520.3040835795</t>
+  </si>
+  <si>
+    <t>17328.97575242</t>
+  </si>
+  <si>
+    <t>18979.9917029921</t>
+  </si>
+  <si>
+    <t>20003</t>
+  </si>
+  <si>
+    <t>19599</t>
+  </si>
+  <si>
+    <t>19873</t>
+  </si>
+  <si>
+    <t>19183</t>
+  </si>
+  <si>
+    <t>19502</t>
+  </si>
+  <si>
+    <t>18875</t>
   </si>
   <si>
     <t>Description</t>
@@ -4150,6 +4168,108 @@
         <v>148</v>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4165,50 +4285,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
